--- a/T4/Modelos.xlsx
+++ b/T4/Modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosPenaloza/Desktop/Universidad/6to Semestre/Proba  II/Tareas/T4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB47BA4-5D17-154E-9D98-6AC10C6828C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC962723-181E-8C4A-8DC6-6F05A709D04F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Presupuesto de publicidad</t>
   </si>
   <si>
-    <t>Número de piezas</t>
-  </si>
-  <si>
     <t>Dificultad</t>
   </si>
   <si>
@@ -52,10 +49,13 @@
     <t>Extrema</t>
   </si>
   <si>
-    <t>Años de antigüedad</t>
+    <t>Historico</t>
   </si>
   <si>
-    <t>Histórico</t>
+    <t>Anhos de antiguedad</t>
+  </si>
+  <si>
+    <t>Numero de piezas</t>
   </si>
 </sst>
 </file>
@@ -558,16 +558,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
